--- a/biology/Médecine/Hôpital_de_Töölö/Hôpital_de_Töölö.xlsx
+++ b/biology/Médecine/Hôpital_de_Töölö/Hôpital_de_Töölö.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_T%C3%B6%C3%B6l%C3%B6</t>
+          <t>Hôpital_de_Töölö</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de Töölö (en finnois : Töölön sairaala) est un hôpital situé à Taka-Töölö du HUCH à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de Töölö (en finnois : Töölön sairaala) est un hôpital situé à Taka-Töölö du HUCH à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_T%C3%B6%C3%B6l%C3%B6</t>
+          <t>Hôpital_de_Töölö</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est spécialisé en chirurgie plastique, orthopédie et traumatologie, chirurgie de la main et neurochirurgie.
-L'hôpital a une zone de responsabilité d'environ 2 millions de personnes[1].
+L'hôpital a une zone de responsabilité d'environ 2 millions de personnes.
 L'hôpital a 15 salles d'opération et environ 200 lits.
-L'hôpital dispose aussi de cliniques externes dans plusieurs spécialités, de laboratoires, de dispositifs d'imagerie et d'une unité de physiothérapie[1]. 
-L'hôpital de Töölö sera abandonné dans les années 2020 lorsque la construction du nouvel hôpital Siltasairaala de Meilahti sera achevée[2],[3].
+L'hôpital dispose aussi de cliniques externes dans plusieurs spécialités, de laboratoires, de dispositifs d'imagerie et d'une unité de physiothérapie. 
+L'hôpital de Töölö sera abandonné dans les années 2020 lorsque la construction du nouvel hôpital Siltasairaala de Meilahti sera achevée,.
 </t>
         </is>
       </c>
